--- a/biology/Botanique/Diaporthe/Diaporthe.xlsx
+++ b/biology/Botanique/Diaporthe/Diaporthe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diaporthe est un genre de champignons ascomycètes de la famille des Diaporthaceae. La forme anamorphe (asexuée) est Phomopsis.
-Ce genre comprend environ 800 espèces qui sont soit endophytes non pathogènes, soit pathogènes des plantes, soit saprobes, la même espèce pouvant se comporter en endophyte ou en pathogène selon les hôtes. certaines peuvent aussi être pathogènes pour l'homme et certains mammifères[1].
-Certaines espèces, comme Diaporthe toxica , produisent des métabolites secondaires qui provoquent des mycotoxicoses chez les animaux telles que la lupinose mycosique des ovins[2].
+Ce genre comprend environ 800 espèces qui sont soit endophytes non pathogènes, soit pathogènes des plantes, soit saprobes, la même espèce pouvant se comporter en endophyte ou en pathogène selon les hôtes. certaines peuvent aussi être pathogènes pour l'homme et certains mammifères.
+Certaines espèces, comme Diaporthe toxica , produisent des métabolites secondaires qui provoquent des mycotoxicoses chez les animaux telles que la lupinose mycosique des ovins.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (3 novembre 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (3 novembre 2014) :
 Dialytes Nitschke (1867) ;
 Diaporthe subgen. Chorostate (1882) ;
 Septomazzantia Theiss. &amp; Syd. (1915) ;]
@@ -548,9 +562,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (3 novembre 2014)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (3 novembre 2014) :
 Diaporthe abdita
 Diaporthe aberrans
 Diaporthe abnormis
@@ -815,7 +831,7 @@
 Diaporthe xanthii
 Diaporthe yerbae
 Diaporthe ziziphina
-Selon Index Fungorum                                      (3 novembre 2014)[5] :
+Selon Index Fungorum                                      (3 novembre 2014) :
 Diaporthe abdita Sacc. &amp; Speg. 1878
 Diaporthe aberrans Speg. 1910
 Diaporthe abnormis Höhn. 1917
@@ -957,9 +973,11 @@
           <t>Liste des espèces, variétés et non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (3 novembre 2014)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (3 novembre 2014) :
 Diaporthe acaciigena
 Diaporthe acerina
 Diaporthe actinidiae
